--- a/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_이다영.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_이다영.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이다영\Desktop\Coding\모두의코딩\학습스케줄\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A808530B-A287-46CD-B76C-01A23102D9C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF5262-C362-4A31-B740-F83815BC5EA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="2" xr2:uid="{C01C1A8E-4ADD-40E9-8DA3-9E41321FCE29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1" xr2:uid="{C01C1A8E-4ADD-40E9-8DA3-9E41321FCE29}"/>
   </bookViews>
   <sheets>
     <sheet name="출석현황" sheetId="1" r:id="rId1"/>
-    <sheet name="동영상 강의" sheetId="2" r:id="rId2"/>
+    <sheet name="학습 내용" sheetId="2" r:id="rId2"/>
     <sheet name="미션클리어" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,18 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 보고 있는 동영상 강좌 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,11 +61,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생활코딩 - react</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20/40</t>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>07월 01일</t>
+  </si>
+  <si>
+    <t>07월 02일</t>
+  </si>
+  <si>
+    <t>07월 03일</t>
+  </si>
+  <si>
+    <t>07월 04일</t>
+  </si>
+  <si>
+    <t>07월 05일</t>
+  </si>
+  <si>
+    <t>07월 06일</t>
+  </si>
+  <si>
+    <t>07월 07일</t>
+  </si>
+  <si>
+    <t>07월 08일</t>
+  </si>
+  <si>
+    <t>07월 09일</t>
+  </si>
+  <si>
+    <t>07월 10일</t>
+  </si>
+  <si>
+    <t>07월 11일</t>
+  </si>
+  <si>
+    <t>07월 12일</t>
+  </si>
+  <si>
+    <t>07월 13일</t>
+  </si>
+  <si>
+    <t>07월 14일</t>
+  </si>
+  <si>
+    <t>07월 15일</t>
+  </si>
+  <si>
+    <t>07월 16일</t>
+  </si>
+  <si>
+    <t>07월 17일</t>
+  </si>
+  <si>
+    <t>07월 18일</t>
+  </si>
+  <si>
+    <t>07월 19일</t>
+  </si>
+  <si>
+    <t>07월 20일</t>
+  </si>
+  <si>
+    <t>07월 21일</t>
+  </si>
+  <si>
+    <t>07월 22일</t>
+  </si>
+  <si>
+    <t>07월 23일</t>
+  </si>
+  <si>
+    <t>07월 24일</t>
+  </si>
+  <si>
+    <t>07월 25일</t>
+  </si>
+  <si>
+    <t>07월 26일</t>
+  </si>
+  <si>
+    <t>07월 27일</t>
+  </si>
+  <si>
+    <t>07월 28일</t>
+  </si>
+  <si>
+    <t>07월 29일</t>
+  </si>
+  <si>
+    <t>07월 30일</t>
+  </si>
+  <si>
+    <t>07월 31일</t>
+  </si>
+  <si>
+    <t>달성률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨로퍼트와 함께하는 모던 리액트 : 1장 리액트 입문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제 외 학습 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨로퍼트와 함께하는 모던 리액트 : 2장 리액트 컴포넌트 스타일링하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,8 +189,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="179" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,12 +210,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +247,12 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +571,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -500,25 +617,55 @@
       <c r="A4" s="1">
         <v>44015</v>
       </c>
+      <c r="B4" s="2">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
+      <c r="B5" s="2">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
+      <c r="B6" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
+      <c r="B7" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.77083333333333337</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>44019</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -650,47 +797,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F85E23-DA72-4155-813F-DE635316BE46}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" customWidth="1"/>
+    <col min="2" max="2" width="58.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>5</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C8 C10:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -698,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B827D683-A3C3-43D8-AA90-8891D12F8024}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -709,25 +1034,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
